--- a/PhoenixCI/Excel_Template/42033.xlsx
+++ b/PhoenixCI/Excel_Template/42033.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7E0407-9F42-419C-9BFC-74C7E022A694}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9DE00E2-E485-41DC-946E-359838C9E69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18225" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="42033" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -685,47 +684,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1112,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -1119,67 +1120,806 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="16.5">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="33">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="33">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="6:9">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="6:9">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="6:9">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="6:9">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="6:9">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="6:9">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="6:9">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="6:9">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="6:9">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="6:9">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="6:9">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="6:9">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="6:9">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="6:9">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="6:9">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="6:9">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="6:9">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="6:9">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="6:9">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="6:9">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="6:9">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="6:9">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="6:9">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="6:9">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="6:9">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="6:9">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="6:9">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="6:9">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="6:9">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="6:9">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="6:9">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="6:9">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="6:9">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="6:9">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="6:9">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="6:9">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="6:9">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="6:9">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="6:9">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="6:9">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="6:9">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="6:9">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="6:9">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="6:9">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="6:9">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="6:9">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="6:9">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="6:9">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="6:9">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="6:9">
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="6:9">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="6:9">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="6:9">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="6:9">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="6:9">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="6:9">
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="6:9">
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="6:9">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="6:9">
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="6:9">
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="6:9">
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="6:9">
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="6:9">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="6:9">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="6:9">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="6:9">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="6:9">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="6:9">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="6:9">
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="6:9">
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="6:9">
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="6:9">
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="6:9">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PhoenixCI/Excel_Template/42033.xlsx
+++ b/PhoenixCI/Excel_Template/42033.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9DE00E2-E485-41DC-946E-359838C9E69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7E0407-9F42-419C-9BFC-74C7E022A694}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18225" windowHeight="11010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="42033" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -684,49 +685,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1111,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -1120,806 +1119,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="16.5">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="I4" s="9"/>
+    <row r="4" spans="1:5" ht="27" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="33">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="33">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="6:9">
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="6:9">
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="6:9">
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="6:9">
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="6:9">
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="6:9">
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="6:9">
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="6:9">
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="6:9">
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="6:9">
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="6:9">
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="6:9">
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="6:9">
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="6:9">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="6:9">
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="6:9">
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="6:9">
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="6:9">
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="6:9">
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="6:9">
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="6:9">
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="6:9">
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="6:9">
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="6:9">
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="6:9">
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="6:9">
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="6:9">
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="6:9">
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="6:9">
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="6:9">
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="6:9">
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="6:9">
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="6:9">
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="6:9">
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="6:9">
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="6:9">
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="6:9">
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="6:9">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="6:9">
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="6:9">
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="6:9">
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="6:9">
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="6:9">
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="6:9">
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="6:9">
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="6:9">
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="6:9">
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="6:9">
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="6:9">
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="6:9">
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="6:9">
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="6:9">
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="6:9">
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="6:9">
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="6:9">
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="6:9">
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="6:9">
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="6:9">
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="6:9">
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="6:9">
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="6:9">
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="6:9">
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="6:9">
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="6:9">
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="6:9">
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="6:9">
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="6:9">
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="6:9">
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="6:9">
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="6:9">
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="6:9">
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="6:9">
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="6:9">
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="6:9">
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="6:9">
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="6:9">
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="6:9">
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="6:9">
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="6:9">
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="6:9">
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="6:9">
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="6:9">
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="6:9">
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="6:9">
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="6:9">
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="6:9">
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="6:9">
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="6:9">
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="6:9">
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="6:9">
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="6:9">
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="6:9">
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="6:9">
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="6:9">
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="6:9">
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="6:9">
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="6:9">
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="6:9">
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="6:9">
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="6:9">
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
